--- a/test_Tokareva.xlsx
+++ b/test_Tokareva.xlsx
@@ -11,16 +11,53 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Провели изменение в файле…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -346,11 +383,17 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
